--- a/biology/Zoologie/Cynoscion/Cynoscion.xlsx
+++ b/biology/Zoologie/Cynoscion/Cynoscion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynoscion est un genre de poissons de la famille des Sciaenidae. Il regroupe la majorité des espèces d'acoupas.
-Le record du son le plus fort émis par des poissons a été enregistré chez le mâle de Cynoscion othonopterus. Il est émis au moment de la reproduction, laquelle s'effectue dans le delta du Colorado, synchronisée avec la marées et les phases de la Lune (les rassemblements de poissons peuvent alors mesurer des dizaines de kilomètres)[1].
-En 2014 deux biologistes ont utilisé des sonars et des microphones sous-marins durant quatre jours pour suivre cette reproduction printanière ; le « chants » de ces poissons a atteint 150 décibels (intensité équivalente au bruit d'un avion à réaction), ce qui est non seulement le son le plus fort jamais entendu venant de poissons, mais aussi l'un des sons les plus forts jamais captés sous l'eau. Selon les auteurs de l'étude ce grésillement hurlant collectivement émis par le banc de poissons au moment du frai (1,5 million d'individus environ) était si intense qu'il pourrait nuire à l'ouïe d'animaux marins tels que phoques et baleines qui pourraient être attirés par cette nourriture apparemment facile[2]. Le son émis par un individu unique est constitué de séquences de neuf impulsions. Il se fond dans un chœur continu à des fréquences inférieures à 2 000 Hz[1]. Sur le lieu de reproduction, plus la densité en poisson est importante, plus le bruit qu'ils émettent est intense, et on suppose donc que ce phénomène était autrefois bien plus intense, car ce poisson présente des effectifs qui ont fortement décliné en raison de la surpêche (et peut être de la pollution de son milieu)[3],[4].
+Le record du son le plus fort émis par des poissons a été enregistré chez le mâle de Cynoscion othonopterus. Il est émis au moment de la reproduction, laquelle s'effectue dans le delta du Colorado, synchronisée avec la marées et les phases de la Lune (les rassemblements de poissons peuvent alors mesurer des dizaines de kilomètres).
+En 2014 deux biologistes ont utilisé des sonars et des microphones sous-marins durant quatre jours pour suivre cette reproduction printanière ; le « chants » de ces poissons a atteint 150 décibels (intensité équivalente au bruit d'un avion à réaction), ce qui est non seulement le son le plus fort jamais entendu venant de poissons, mais aussi l'un des sons les plus forts jamais captés sous l'eau. Selon les auteurs de l'étude ce grésillement hurlant collectivement émis par le banc de poissons au moment du frai (1,5 million d'individus environ) était si intense qu'il pourrait nuire à l'ouïe d'animaux marins tels que phoques et baleines qui pourraient être attirés par cette nourriture apparemment facile. Le son émis par un individu unique est constitué de séquences de neuf impulsions. Il se fond dans un chœur continu à des fréquences inférieures à 2 000 Hz. Sur le lieu de reproduction, plus la densité en poisson est importante, plus le bruit qu'ils émettent est intense, et on suppose donc que ce phénomène était autrefois bien plus intense, car ce poisson présente des effectifs qui ont fortement décliné en raison de la surpêche (et peut être de la pollution de son milieu),.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cynoscion acoupa (Lacepède, 1801) - Acoupa rouge ou Acoupa weakfish ou Acoupa toeroe
 Cynoscion analis - Acoupa du Pérou
@@ -532,9 +546,43 @@
 Cynoscion steindachneri - Acoupa tident
 Cynoscion striatus - Acoupa rayé
 Cynoscion virescens - Acoupa aiguille ou Acoupa cambucu
-Cynoscion xanthulum (Jordan &amp; Gilbert, 1882)
-Espèces d'acoupas n'appartenant pas au genre Cynoscion
-Atractoscion nobilis - Acoupa blanc
+Cynoscion xanthulum (Jordan &amp; Gilbert, 1882)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cynoscion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynoscion</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces d'acoupas n'appartenant pas au genre Cynoscion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Atractoscion nobilis - Acoupa blanc
 Isopisthus remifer - Acoupa bleu
 Macrodon ancylodon - Acoupa chasseur
 Totoaba macdonaldi - Acoupa totoaba</t>
